--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D5815E31-BB03-4775-82C6-331185A93F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95709E9-F0FC-4DE3-AA1F-B864EE9F6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -123,33 +123,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 1 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
-  </si>
-  <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
   <si>
@@ -161,9 +134,6 @@
   <si>
     <t>ASSIGNED
 TO</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>PROGRESS</t>
@@ -235,6 +205,123 @@
   </si>
   <si>
     <t>Dungeon Crawlers</t>
+  </si>
+  <si>
+    <t>Complete Chart</t>
+  </si>
+  <si>
+    <t>Create Flowchart</t>
+  </si>
+  <si>
+    <t>File Structure</t>
+  </si>
+  <si>
+    <t>Create main.py</t>
+  </si>
+  <si>
+    <t>Pseudocode</t>
+  </si>
+  <si>
+    <t>Entity Design</t>
+  </si>
+  <si>
+    <t>Random room selection</t>
+  </si>
+  <si>
+    <t>Random encounters</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Treasure/ Loot</t>
+  </si>
+  <si>
+    <t>Test code</t>
+  </si>
+  <si>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>Reflect on new ideas</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Create CPA (Critical Path Analysis)</t>
+  </si>
+  <si>
+    <t>Game Over Screen ( Hp systerm)</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>Scoreboard ( Enemy kills) - disucss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging </t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Assign Tasks</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Zahari</t>
+  </si>
+  <si>
+    <t>Optimise code</t>
+  </si>
+  <si>
+    <t>Research JSON</t>
+  </si>
+  <si>
+    <t>Research Random Networks</t>
+  </si>
+  <si>
+    <t>Create JSON File</t>
+  </si>
+  <si>
+    <t>Set-Up Phase</t>
+  </si>
+  <si>
+    <t>Planning Phase</t>
+  </si>
+  <si>
+    <t>Programming Phase</t>
+  </si>
+  <si>
+    <t>Implementation and Testing</t>
+  </si>
+  <si>
+    <t>Design of Rooms</t>
+  </si>
+  <si>
+    <t>Design of Entities</t>
+  </si>
+  <si>
+    <t>Shared over meeting</t>
+  </si>
+  <si>
+    <t>Create Entity class</t>
+  </si>
+  <si>
+    <t>Create Player class</t>
+  </si>
+  <si>
+    <t>Alex (can change)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +338,7 @@
     <numFmt numFmtId="168" formatCode="d"/>
     <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +601,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1044,7 +1138,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1288,6 +1382,9 @@
     <xf numFmtId="168" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1297,17 +1394,20 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1916,11 +2016,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CG37"/>
+  <dimension ref="A1:CG45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1941,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1949,7 +2049,7 @@
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
       <c r="I1" s="66" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1957,150 +2057,150 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I2" s="67" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="92"/>
-      <c r="E3" s="90">
-        <f>DATE(2025,11,3)</f>
-        <v>45964</v>
-      </c>
-      <c r="F3" s="90"/>
+      <c r="E3" s="93">
+        <f>DATE(2025,11,11)</f>
+        <v>45972</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="88">
         <f>I5</f>
-        <v>45957</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+        <v>45964</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
-        <v>45964</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+        <v>45971</v>
+      </c>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
-        <v>45971</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+        <v>45978</v>
+      </c>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
-        <v>45978</v>
-      </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+        <v>45985</v>
+      </c>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
-        <v>45985</v>
-      </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+        <v>45992</v>
+      </c>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
-        <v>45992</v>
-      </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+        <v>45999</v>
+      </c>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
-        <v>45999</v>
-      </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+        <v>46006</v>
+      </c>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
-        <v>46006</v>
-      </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="87">
+        <v>46013</v>
+      </c>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="88">
         <f>BM5</f>
-        <v>46013</v>
-      </c>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="88"/>
-      <c r="BQ4" s="88"/>
-      <c r="BR4" s="88"/>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="87">
+        <v>46020</v>
+      </c>
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="BR4" s="89"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="88">
         <f>BT5</f>
-        <v>46020</v>
-      </c>
-      <c r="BU4" s="88"/>
-      <c r="BV4" s="88"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="88"/>
-      <c r="BY4" s="88"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="87">
+        <v>46027</v>
+      </c>
+      <c r="BU4" s="89"/>
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="89"/>
+      <c r="BZ4" s="90"/>
+      <c r="CA4" s="88">
         <f>CA5</f>
-        <v>46027</v>
-      </c>
-      <c r="CB4" s="88"/>
-      <c r="CC4" s="88"/>
-      <c r="CD4" s="88"/>
-      <c r="CE4" s="88"/>
-      <c r="CF4" s="88"/>
-      <c r="CG4" s="89"/>
+        <v>46034</v>
+      </c>
+      <c r="CB4" s="89"/>
+      <c r="CC4" s="89"/>
+      <c r="CD4" s="89"/>
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="89"/>
+      <c r="CG4" s="90"/>
     </row>
     <row r="5" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -2114,311 +2214,311 @@
       <c r="G5" s="65"/>
       <c r="I5" s="84">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45957</v>
+        <v>45964</v>
       </c>
       <c r="J5" s="85">
         <f>I5+1</f>
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="K5" s="85">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="L5" s="85">
         <f t="shared" si="0"/>
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="M5" s="85">
         <f t="shared" si="0"/>
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="N5" s="85">
         <f t="shared" si="0"/>
-        <v>45962</v>
+        <v>45969</v>
       </c>
       <c r="O5" s="86">
         <f t="shared" si="0"/>
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="P5" s="84">
         <f>O5+1</f>
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="Q5" s="85">
         <f>P5+1</f>
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="R5" s="85">
         <f t="shared" si="0"/>
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="S5" s="85">
         <f t="shared" si="0"/>
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="T5" s="85">
         <f t="shared" si="0"/>
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="U5" s="85">
         <f t="shared" si="0"/>
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="V5" s="86">
         <f t="shared" si="0"/>
-        <v>45970</v>
+        <v>45977</v>
       </c>
       <c r="W5" s="84">
         <f>V5+1</f>
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="X5" s="85">
         <f>W5+1</f>
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="Y5" s="85">
         <f t="shared" si="0"/>
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="Z5" s="85">
         <f t="shared" si="0"/>
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA5" s="85">
         <f t="shared" si="0"/>
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="AB5" s="85">
         <f t="shared" si="0"/>
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="AC5" s="86">
         <f t="shared" si="0"/>
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="AD5" s="84">
         <f>AC5+1</f>
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="AE5" s="85">
         <f>AD5+1</f>
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="AF5" s="85">
         <f t="shared" si="0"/>
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="AG5" s="85">
         <f t="shared" si="0"/>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AH5" s="85">
         <f t="shared" si="0"/>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="AI5" s="85">
         <f t="shared" si="0"/>
-        <v>45983</v>
+        <v>45990</v>
       </c>
       <c r="AJ5" s="86">
         <f t="shared" si="0"/>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="AK5" s="84">
         <f>AJ5+1</f>
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="AL5" s="85">
         <f>AK5+1</f>
-        <v>45986</v>
+        <v>45993</v>
       </c>
       <c r="AM5" s="85">
         <f t="shared" si="0"/>
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="AN5" s="85">
         <f t="shared" si="0"/>
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AO5" s="85">
         <f t="shared" si="0"/>
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="AP5" s="85">
         <f t="shared" si="0"/>
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="AQ5" s="86">
         <f t="shared" si="0"/>
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="AR5" s="84">
         <f>AQ5+1</f>
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="AS5" s="85">
         <f>AR5+1</f>
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="AT5" s="85">
         <f t="shared" si="0"/>
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="AU5" s="85">
         <f t="shared" si="0"/>
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="AV5" s="85">
         <f t="shared" si="0"/>
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="AW5" s="85">
         <f t="shared" si="0"/>
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="AX5" s="86">
         <f t="shared" si="0"/>
-        <v>45998</v>
+        <v>46005</v>
       </c>
       <c r="AY5" s="84">
         <f>AX5+1</f>
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="AZ5" s="85">
         <f>AY5+1</f>
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="BA5" s="85">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="BB5" s="85">
         <f t="shared" si="1"/>
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="BC5" s="85">
         <f t="shared" si="1"/>
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="BD5" s="85">
         <f t="shared" si="1"/>
-        <v>46004</v>
+        <v>46011</v>
       </c>
       <c r="BE5" s="86">
         <f t="shared" si="1"/>
-        <v>46005</v>
+        <v>46012</v>
       </c>
       <c r="BF5" s="84">
         <f>BE5+1</f>
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="BG5" s="85">
         <f>BF5+1</f>
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="BH5" s="85">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="BI5" s="85">
         <f t="shared" si="2"/>
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="BJ5" s="85">
         <f t="shared" si="2"/>
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="BK5" s="85">
         <f t="shared" si="2"/>
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="BL5" s="86">
         <f t="shared" si="2"/>
-        <v>46012</v>
+        <v>46019</v>
       </c>
       <c r="BM5" s="84">
         <f>BL5+1</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
       <c r="BN5" s="85">
         <f>BM5+1</f>
-        <v>46014</v>
+        <v>46021</v>
       </c>
       <c r="BO5" s="85">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="BP5" s="85">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
-        <v>46016</v>
+        <v>46023</v>
       </c>
       <c r="BQ5" s="85">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
-        <v>46017</v>
+        <v>46024</v>
       </c>
       <c r="BR5" s="85">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
-        <v>46018</v>
+        <v>46025</v>
       </c>
       <c r="BS5" s="86">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
-        <v>46019</v>
+        <v>46026</v>
       </c>
       <c r="BT5" s="84">
         <f>BS5+1</f>
-        <v>46020</v>
+        <v>46027</v>
       </c>
       <c r="BU5" s="85">
         <f>BT5+1</f>
-        <v>46021</v>
+        <v>46028</v>
       </c>
       <c r="BV5" s="85">
         <f t="shared" ref="BV5" si="8">BU5+1</f>
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="BW5" s="85">
         <f t="shared" ref="BW5" si="9">BV5+1</f>
-        <v>46023</v>
+        <v>46030</v>
       </c>
       <c r="BX5" s="85">
         <f t="shared" ref="BX5" si="10">BW5+1</f>
-        <v>46024</v>
+        <v>46031</v>
       </c>
       <c r="BY5" s="85">
         <f t="shared" ref="BY5" si="11">BX5+1</f>
-        <v>46025</v>
+        <v>46032</v>
       </c>
       <c r="BZ5" s="86">
         <f t="shared" ref="BZ5" si="12">BY5+1</f>
-        <v>46026</v>
+        <v>46033</v>
       </c>
       <c r="CA5" s="84">
         <f>BZ5+1</f>
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="CB5" s="85">
         <f>CA5+1</f>
-        <v>46028</v>
+        <v>46035</v>
       </c>
       <c r="CC5" s="85">
         <f t="shared" ref="CC5" si="13">CB5+1</f>
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="CD5" s="85">
         <f t="shared" ref="CD5" si="14">CC5+1</f>
-        <v>46030</v>
+        <v>46037</v>
       </c>
       <c r="CE5" s="85">
         <f t="shared" ref="CE5" si="15">CD5+1</f>
-        <v>46031</v>
+        <v>46038</v>
       </c>
       <c r="CF5" s="85">
         <f t="shared" ref="CF5" si="16">CE5+1</f>
-        <v>46032</v>
+        <v>46039</v>
       </c>
       <c r="CG5" s="86">
         <f t="shared" ref="CG5" si="17">CF5+1</f>
-        <v>46033</v>
+        <v>46040</v>
       </c>
     </row>
     <row r="6" spans="1:85" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2429,20 +2529,20 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" si="18">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2825,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="16"/>
@@ -2833,7 +2933,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H34" si="24">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="24">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2919,26 +3019,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="71">
         <f>Project_Start</f>
-        <v>45964</v>
+        <v>45972</v>
       </c>
       <c r="F9" s="71">
-        <f>E9</f>
-        <v>45964</v>
+        <f>E9+7</f>
+        <v>45979</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
@@ -3019,29 +3119,26 @@
       <c r="CG9" s="31"/>
     </row>
     <row r="10" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="46"/>
       <c r="B10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="52"/>
+        <v>63</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="17">
         <v>0</v>
       </c>
       <c r="E10" s="71">
         <f>F9</f>
-        <v>45964</v>
+        <v>45979</v>
       </c>
       <c r="F10" s="71">
-        <f>E10</f>
-        <v>45964</v>
+        <f>E10+5</f>
+        <v>45984</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H10" s="14"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -3054,8 +3151,8 @@
       <c r="R10" s="31"/>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
       <c r="W10" s="31"/>
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
@@ -3121,26 +3218,30 @@
       <c r="CG10" s="31"/>
     </row>
     <row r="11" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="52"/>
+      <c r="A11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="17">
         <v>0</v>
       </c>
       <c r="E11" s="71">
-        <f>F10</f>
-        <v>45964</v>
+        <f>F9</f>
+        <v>45979</v>
       </c>
       <c r="F11" s="71">
-        <f>E11</f>
-        <v>45964</v>
+        <f>E11+7</f>
+        <v>45986</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -3154,8 +3255,8 @@
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
       <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
       <c r="W11" s="31"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -3223,24 +3324,26 @@
     <row r="12" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="17">
         <v>0</v>
       </c>
       <c r="E12" s="71">
-        <f>F11</f>
-        <v>45964</v>
+        <f>Project_Start</f>
+        <v>45972</v>
       </c>
       <c r="F12" s="71">
-        <f>E12</f>
-        <v>45964</v>
+        <f>E12+7</f>
+        <v>45979</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3258,7 +3361,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
       <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
+      <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
       <c r="AB12" s="31"/>
@@ -3323,7 +3426,7 @@
     <row r="13" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="60" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="17">
@@ -3331,17 +3434,14 @@
       </c>
       <c r="E13" s="71">
         <f>F12</f>
-        <v>45964</v>
+        <v>45979</v>
       </c>
       <c r="F13" s="71">
-        <f>E13</f>
-        <v>45964</v>
+        <f>E13+7</f>
+        <v>45986</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -3358,7 +3458,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
@@ -3421,20 +3521,26 @@
       <c r="CG13" s="31"/>
     </row>
     <row r="14" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="71">
+        <f>F12</f>
+        <v>45979</v>
+      </c>
+      <c r="F14" s="71">
+        <f>E14+4</f>
+        <v>45983</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="14">
         <f t="shared" si="24"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -3452,7 +3558,7 @@
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
       <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
@@ -3515,27 +3621,26 @@
       <c r="CG14" s="31"/>
     </row>
     <row r="15" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="20">
+      <c r="A15" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E15" s="74">
-        <f>E13+1</f>
-        <v>45965</v>
-      </c>
-      <c r="F15" s="74">
-        <f>E15</f>
-        <v>45965</v>
+      <c r="E15" s="71">
+        <f>Project_Start</f>
+        <v>45972</v>
+      </c>
+      <c r="F15" s="71">
+        <f>E15+5</f>
+        <v>45977</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -3552,7 +3657,7 @@
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
+      <c r="Y15" s="32"/>
       <c r="Z15" s="31"/>
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
@@ -3615,26 +3720,23 @@
       <c r="CG15" s="31"/>
     </row>
     <row r="16" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="74">
-        <f>F15</f>
-        <v>45965</v>
-      </c>
-      <c r="F16" s="74">
-        <f>E16</f>
-        <v>45965</v>
-      </c>
+      <c r="A16" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="72">
+        <f>MAX(F9:F15)</f>
+        <v>45986</v>
+      </c>
+      <c r="F16" s="73"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="H16" s="14" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3648,8 +3750,8 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -3717,25 +3819,22 @@
     <row r="17" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="61" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="20">
         <v>0</v>
       </c>
       <c r="E17" s="74">
-        <f>F16</f>
-        <v>45965</v>
+        <f>E16</f>
+        <v>45986</v>
       </c>
       <c r="F17" s="74">
-        <f>E17</f>
-        <v>45965</v>
+        <f>E17+4</f>
+        <v>45990</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -3748,8 +3847,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3816,26 +3915,23 @@
     </row>
     <row r="18" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
-      <c r="B18" s="61" t="s">
-        <v>20</v>
+      <c r="B18" s="95" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="20">
         <v>0</v>
       </c>
       <c r="E18" s="74">
-        <f>E17</f>
-        <v>45965</v>
+        <f>E16</f>
+        <v>45986</v>
       </c>
       <c r="F18" s="74">
-        <f>E18</f>
-        <v>45965</v>
+        <f>E18+7</f>
+        <v>45993</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -3848,11 +3944,11 @@
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3917,25 +4013,22 @@
     <row r="19" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="61" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="20">
         <v>0</v>
       </c>
       <c r="E19" s="74">
-        <f>E18</f>
-        <v>45965</v>
+        <f>F17</f>
+        <v>45990</v>
       </c>
       <c r="F19" s="74">
-        <f>E19</f>
-        <v>45965</v>
+        <f>E19+4</f>
+        <v>45994</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H19" s="14"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -3948,8 +4041,8 @@
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
       <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
@@ -4015,21 +4108,26 @@
       <c r="CG19" s="31"/>
     </row>
     <row r="20" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="74">
+        <f>F18</f>
+        <v>45993</v>
+      </c>
+      <c r="F20" s="74">
+        <f>E20+3</f>
+        <v>45996</v>
+      </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
+      <c r="H20" s="14"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -4042,8 +4140,8 @@
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
       <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
       <c r="W20" s="31"/>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
@@ -4110,26 +4208,25 @@
     </row>
     <row r="21" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
-      <c r="B21" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="23">
+      <c r="B21" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="20">
         <v>0</v>
       </c>
-      <c r="E21" s="77">
-        <f>F19+1</f>
-        <v>45966</v>
-      </c>
-      <c r="F21" s="77">
-        <f>E21</f>
-        <v>45966</v>
+      <c r="E21" s="74">
+        <f>F18</f>
+        <v>45993</v>
+      </c>
+      <c r="F21" s="74">
+        <f>E21+3</f>
+        <v>45996</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H21" s="14"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -4142,8 +4239,8 @@
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
       <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
       <c r="W21" s="31"/>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
@@ -4210,25 +4307,25 @@
     </row>
     <row r="22" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="23">
+      <c r="B22" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="77">
-        <f>F21</f>
-        <v>45966</v>
-      </c>
-      <c r="F22" s="77">
-        <f>E22</f>
-        <v>45966</v>
+      <c r="E22" s="74">
+        <f>E16</f>
+        <v>45986</v>
+      </c>
+      <c r="F22" s="74">
+        <f>E22+3</f>
+        <v>45989</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -4310,25 +4407,27 @@
     </row>
     <row r="23" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="23">
+      <c r="B23" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="20">
         <v>0</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="74">
         <f>F22</f>
-        <v>45966</v>
-      </c>
-      <c r="F23" s="77">
-        <f>E23</f>
-        <v>45966</v>
+        <v>45989</v>
+      </c>
+      <c r="F23" s="74">
+        <f>E23+3</f>
+        <v>45992</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -4346,7 +4445,7 @@
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
       <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
+      <c r="Y23" s="32"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="31"/>
       <c r="AB23" s="31"/>
@@ -4410,25 +4509,27 @@
     </row>
     <row r="24" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="23">
+      <c r="B24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="20">
         <v>0</v>
       </c>
-      <c r="E24" s="77">
-        <f>F23</f>
-        <v>45966</v>
-      </c>
-      <c r="F24" s="77">
-        <f>E24</f>
-        <v>45966</v>
+      <c r="E24" s="74">
+        <f>F22</f>
+        <v>45989</v>
+      </c>
+      <c r="F24" s="74">
+        <f>E24+5</f>
+        <v>45994</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -4509,26 +4610,23 @@
       <c r="CG24" s="31"/>
     </row>
     <row r="25" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="77">
-        <f>E23</f>
-        <v>45966</v>
-      </c>
-      <c r="F25" s="77">
-        <f>E25</f>
-        <v>45966</v>
-      </c>
+      <c r="A25" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="75">
+        <f>MAX(F17:F24)</f>
+        <v>45996</v>
+      </c>
+      <c r="F25" s="76"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
+      <c r="H25" s="14" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -4609,20 +4707,26 @@
       <c r="CG25" s="31"/>
     </row>
     <row r="26" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+      <c r="E26" s="77">
+        <f>F24+1</f>
+        <v>45995</v>
+      </c>
+      <c r="F26" s="77">
+        <f>E26</f>
+        <v>45995</v>
+      </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="14">
         <f t="shared" si="24"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4704,20 +4808,20 @@
     </row>
     <row r="27" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="26">
+      <c r="B27" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="23">
         <v>0</v>
       </c>
-      <c r="E27" s="80">
-        <f>F25+1</f>
-        <v>45967</v>
-      </c>
-      <c r="F27" s="80">
+      <c r="E27" s="77">
+        <f>F26</f>
+        <v>45995</v>
+      </c>
+      <c r="F27" s="77">
         <f>E27</f>
-        <v>45967</v>
+        <v>45995</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
@@ -4804,20 +4908,20 @@
     </row>
     <row r="28" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="26">
+      <c r="B28" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="77">
         <f>F27</f>
-        <v>45967</v>
-      </c>
-      <c r="F28" s="80">
+        <v>45995</v>
+      </c>
+      <c r="F28" s="77">
         <f>E28</f>
-        <v>45967</v>
+        <v>45995</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
@@ -4904,20 +5008,20 @@
     </row>
     <row r="29" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="26">
+      <c r="B29" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="23">
         <v>0</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="77">
         <f>F28</f>
-        <v>45967</v>
-      </c>
-      <c r="F29" s="80">
+        <v>45995</v>
+      </c>
+      <c r="F29" s="77">
         <f>E29</f>
-        <v>45967</v>
+        <v>45995</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
@@ -5004,26 +5108,17 @@
     </row>
     <row r="30" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="26">
+      <c r="B30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="23">
         <v>0</v>
       </c>
-      <c r="E30" s="80">
-        <f>F29</f>
-        <v>45967</v>
-      </c>
-      <c r="F30" s="80">
-        <f>E30</f>
-        <v>45967</v>
-      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
@@ -5103,27 +5198,20 @@
       <c r="CG30" s="31"/>
     </row>
     <row r="31" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="26">
+      <c r="A31" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="23">
         <v>0</v>
       </c>
-      <c r="E31" s="80">
-        <f>F30</f>
-        <v>45967</v>
-      </c>
-      <c r="F31" s="80">
-        <f>E31</f>
-        <v>45967</v>
-      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="14">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
@@ -5204,21 +5292,26 @@
     </row>
     <row r="32" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="80">
-        <f>DATE(2026,1,6)</f>
-        <v>46028</v>
-      </c>
-      <c r="F32" s="80">
+      <c r="B32" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="23">
+        <v>0</v>
+      </c>
+      <c r="E32" s="77">
+        <f>E28</f>
+        <v>45995</v>
+      </c>
+      <c r="F32" s="77">
         <f>E32</f>
-        <v>46028</v>
+        <v>45995</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
@@ -5299,13 +5392,15 @@
     </row>
     <row r="33" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="str">
         <f t="shared" si="24"/>
@@ -5390,108 +5485,894 @@
       <c r="CG33" s="31"/>
     </row>
     <row r="34" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="str">
+      <c r="A34" s="45"/>
+      <c r="B34" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="80">
+        <f>F32+1</f>
+        <v>45996</v>
+      </c>
+      <c r="F34" s="80">
+        <f t="shared" ref="F34:F39" si="25">E34</f>
+        <v>45996</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31"/>
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31"/>
+      <c r="BW34" s="31"/>
+      <c r="BX34" s="31"/>
+      <c r="BY34" s="31"/>
+      <c r="BZ34" s="31"/>
+      <c r="CA34" s="31"/>
+      <c r="CB34" s="31"/>
+      <c r="CC34" s="31"/>
+      <c r="CD34" s="31"/>
+      <c r="CE34" s="31"/>
+      <c r="CF34" s="31"/>
+      <c r="CG34" s="31"/>
+    </row>
+    <row r="35" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="80">
+        <f>F34</f>
+        <v>45996</v>
+      </c>
+      <c r="F35" s="80">
+        <f t="shared" si="25"/>
+        <v>45996</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="31"/>
+      <c r="BL35" s="31"/>
+      <c r="BM35" s="31"/>
+      <c r="BN35" s="31"/>
+      <c r="BO35" s="31"/>
+      <c r="BP35" s="31"/>
+      <c r="BQ35" s="31"/>
+      <c r="BR35" s="31"/>
+      <c r="BS35" s="31"/>
+      <c r="BT35" s="31"/>
+      <c r="BU35" s="31"/>
+      <c r="BV35" s="31"/>
+      <c r="BW35" s="31"/>
+      <c r="BX35" s="31"/>
+      <c r="BY35" s="31"/>
+      <c r="BZ35" s="31"/>
+      <c r="CA35" s="31"/>
+      <c r="CB35" s="31"/>
+      <c r="CC35" s="31"/>
+      <c r="CD35" s="31"/>
+      <c r="CE35" s="31"/>
+      <c r="CF35" s="31"/>
+      <c r="CG35" s="31"/>
+    </row>
+    <row r="36" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="80">
+        <f>F35</f>
+        <v>45996</v>
+      </c>
+      <c r="F36" s="80">
+        <f t="shared" si="25"/>
+        <v>45996</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="31"/>
+      <c r="AZ36" s="31"/>
+      <c r="BA36" s="31"/>
+      <c r="BB36" s="31"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="31"/>
+      <c r="BE36" s="31"/>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="31"/>
+      <c r="BM36" s="31"/>
+      <c r="BN36" s="31"/>
+      <c r="BO36" s="31"/>
+      <c r="BP36" s="31"/>
+      <c r="BQ36" s="31"/>
+      <c r="BR36" s="31"/>
+      <c r="BS36" s="31"/>
+      <c r="BT36" s="31"/>
+      <c r="BU36" s="31"/>
+      <c r="BV36" s="31"/>
+      <c r="BW36" s="31"/>
+      <c r="BX36" s="31"/>
+      <c r="BY36" s="31"/>
+      <c r="BZ36" s="31"/>
+      <c r="CA36" s="31"/>
+      <c r="CB36" s="31"/>
+      <c r="CC36" s="31"/>
+      <c r="CD36" s="31"/>
+      <c r="CE36" s="31"/>
+      <c r="CF36" s="31"/>
+      <c r="CG36" s="31"/>
+    </row>
+    <row r="37" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="80">
+        <f>F36</f>
+        <v>45996</v>
+      </c>
+      <c r="F37" s="80">
+        <f t="shared" si="25"/>
+        <v>45996</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="31"/>
+      <c r="BO37" s="31"/>
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="31"/>
+      <c r="BT37" s="31"/>
+      <c r="BU37" s="31"/>
+      <c r="BV37" s="31"/>
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="31"/>
+      <c r="CA37" s="31"/>
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
+      <c r="CD37" s="31"/>
+      <c r="CE37" s="31"/>
+      <c r="CF37" s="31"/>
+      <c r="CG37" s="31"/>
+    </row>
+    <row r="38" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+      <c r="E38" s="80">
+        <f>F37</f>
+        <v>45996</v>
+      </c>
+      <c r="F38" s="80">
+        <f t="shared" si="25"/>
+        <v>45996</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="31"/>
+      <c r="BO38" s="31"/>
+      <c r="BP38" s="31"/>
+      <c r="BQ38" s="31"/>
+      <c r="BR38" s="31"/>
+      <c r="BS38" s="31"/>
+      <c r="BT38" s="31"/>
+      <c r="BU38" s="31"/>
+      <c r="BV38" s="31"/>
+      <c r="BW38" s="31"/>
+      <c r="BX38" s="31"/>
+      <c r="BY38" s="31"/>
+      <c r="BZ38" s="31"/>
+      <c r="CA38" s="31"/>
+      <c r="CB38" s="31"/>
+      <c r="CC38" s="31"/>
+      <c r="CD38" s="31"/>
+      <c r="CE38" s="31"/>
+      <c r="CF38" s="31"/>
+      <c r="CG38" s="31"/>
+    </row>
+    <row r="39" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+      <c r="E39" s="80">
+        <f>DATE(2026,1,6)</f>
+        <v>46028</v>
+      </c>
+      <c r="F39" s="80">
+        <f t="shared" si="25"/>
+        <v>46028</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+      <c r="BM39" s="31"/>
+      <c r="BN39" s="31"/>
+      <c r="BO39" s="31"/>
+      <c r="BP39" s="31"/>
+      <c r="BQ39" s="31"/>
+      <c r="BR39" s="31"/>
+      <c r="BS39" s="31"/>
+      <c r="BT39" s="31"/>
+      <c r="BU39" s="31"/>
+      <c r="BV39" s="31"/>
+      <c r="BW39" s="31"/>
+      <c r="BX39" s="31"/>
+      <c r="BY39" s="31"/>
+      <c r="BZ39" s="31"/>
+      <c r="CA39" s="31"/>
+      <c r="CB39" s="31"/>
+      <c r="CC39" s="31"/>
+      <c r="CD39" s="31"/>
+      <c r="CE39" s="31"/>
+      <c r="CF39" s="31"/>
+      <c r="CG39" s="31"/>
+    </row>
+    <row r="40" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+      <c r="E40" s="80">
+        <f>DATE(2026,1,6)</f>
+        <v>46028</v>
+      </c>
+      <c r="F40" s="80">
+        <f>E40</f>
+        <v>46028</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="31"/>
+      <c r="BQ40" s="31"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
+      <c r="BT40" s="31"/>
+      <c r="BU40" s="31"/>
+      <c r="BV40" s="31"/>
+      <c r="BW40" s="31"/>
+      <c r="BX40" s="31"/>
+      <c r="BY40" s="31"/>
+      <c r="BZ40" s="31"/>
+      <c r="CA40" s="31"/>
+      <c r="CB40" s="31"/>
+      <c r="CC40" s="31"/>
+      <c r="CD40" s="31"/>
+      <c r="CE40" s="31"/>
+      <c r="CF40" s="31"/>
+      <c r="CG40" s="31"/>
+    </row>
+    <row r="41" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
-      <c r="BM34" s="33"/>
-      <c r="BN34" s="33"/>
-      <c r="BO34" s="33"/>
-      <c r="BP34" s="33"/>
-      <c r="BQ34" s="33"/>
-      <c r="BR34" s="33"/>
-      <c r="BS34" s="33"/>
-      <c r="BT34" s="33"/>
-      <c r="BU34" s="33"/>
-      <c r="BV34" s="33"/>
-      <c r="BW34" s="33"/>
-      <c r="BX34" s="33"/>
-      <c r="BY34" s="33"/>
-      <c r="BZ34" s="33"/>
-      <c r="CA34" s="33"/>
-      <c r="CB34" s="33"/>
-      <c r="CC34" s="33"/>
-      <c r="CD34" s="33"/>
-      <c r="CE34" s="33"/>
-      <c r="CF34" s="33"/>
-      <c r="CG34" s="33"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="31"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="31"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="31"/>
+      <c r="AZ41" s="31"/>
+      <c r="BA41" s="31"/>
+      <c r="BB41" s="31"/>
+      <c r="BC41" s="31"/>
+      <c r="BD41" s="31"/>
+      <c r="BE41" s="31"/>
+      <c r="BF41" s="31"/>
+      <c r="BG41" s="31"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
+      <c r="BN41" s="31"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="31"/>
+      <c r="BQ41" s="31"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
+      <c r="BT41" s="31"/>
+      <c r="BU41" s="31"/>
+      <c r="BV41" s="31"/>
+      <c r="BW41" s="31"/>
+      <c r="BX41" s="31"/>
+      <c r="BY41" s="31"/>
+      <c r="BZ41" s="31"/>
+      <c r="CA41" s="31"/>
+      <c r="CB41" s="31"/>
+      <c r="CC41" s="31"/>
+      <c r="CD41" s="31"/>
+      <c r="CE41" s="31"/>
+      <c r="CF41" s="31"/>
+      <c r="CG41" s="31"/>
     </row>
-    <row r="35" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="6"/>
+    <row r="42" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="33"/>
+      <c r="BC42" s="33"/>
+      <c r="BD42" s="33"/>
+      <c r="BE42" s="33"/>
+      <c r="BF42" s="33"/>
+      <c r="BG42" s="33"/>
+      <c r="BH42" s="33"/>
+      <c r="BI42" s="33"/>
+      <c r="BJ42" s="33"/>
+      <c r="BK42" s="33"/>
+      <c r="BL42" s="33"/>
+      <c r="BM42" s="33"/>
+      <c r="BN42" s="33"/>
+      <c r="BO42" s="33"/>
+      <c r="BP42" s="33"/>
+      <c r="BQ42" s="33"/>
+      <c r="BR42" s="33"/>
+      <c r="BS42" s="33"/>
+      <c r="BT42" s="33"/>
+      <c r="BU42" s="33"/>
+      <c r="BV42" s="33"/>
+      <c r="BW42" s="33"/>
+      <c r="BX42" s="33"/>
+      <c r="BY42" s="33"/>
+      <c r="BZ42" s="33"/>
+      <c r="CA42" s="33"/>
+      <c r="CB42" s="33"/>
+      <c r="CC42" s="33"/>
+      <c r="CD42" s="33"/>
+      <c r="CE42" s="33"/>
+      <c r="CF42" s="33"/>
+      <c r="CG42" s="33"/>
     </row>
-    <row r="36" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="11"/>
-      <c r="F36" s="47"/>
+    <row r="43" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="6"/>
     </row>
-    <row r="37" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
+    <row r="44" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="11"/>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5510,7 +6391,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D34">
+  <conditionalFormatting sqref="D7:D42">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5524,12 +6405,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL7 BM5:CG6 I8:CG34">
+  <conditionalFormatting sqref="I5:BL7 BM5:CG6 I8:CG42">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL7 I8:CG34">
+  <conditionalFormatting sqref="I7:BL7 I8:CG42">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5568,7 +6449,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34</xm:sqref>
+          <xm:sqref>D7:D42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5591,79 +6472,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5680,6 +6561,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5967,7 +6857,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5987,16 +6877,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6017,7 +6906,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6027,12 +6916,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95709E9-F0FC-4DE3-AA1F-B864EE9F6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1AA130-62B8-42CF-9616-76263E30C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -213,18 +213,12 @@
     <t>Create Flowchart</t>
   </si>
   <si>
-    <t>File Structure</t>
-  </si>
-  <si>
     <t>Create main.py</t>
   </si>
   <si>
     <t>Pseudocode</t>
   </si>
   <si>
-    <t>Entity Design</t>
-  </si>
-  <si>
     <t>Random room selection</t>
   </si>
   <si>
@@ -322,6 +316,18 @@
   </si>
   <si>
     <t>Alex (can change)</t>
+  </si>
+  <si>
+    <t>Create Dependancy Table</t>
+  </si>
+  <si>
+    <t>Logan and Alex</t>
+  </si>
+  <si>
+    <t>File Structure and programming branch</t>
+  </si>
+  <si>
+    <t>Sophia</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1402,6 +1408,9 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -2020,7 +2029,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2925,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="16"/>
@@ -3022,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="17">
         <v>0.5</v>
@@ -3121,13 +3130,13 @@
     <row r="10" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="71">
         <f>F9</f>
@@ -3218,14 +3227,12 @@
       <c r="CG10" s="31"/>
     </row>
     <row r="11" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="46"/>
       <c r="B11" s="94" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D11" s="17">
         <v>0</v>
@@ -3235,14 +3242,11 @@
         <v>45979</v>
       </c>
       <c r="F11" s="71">
-        <f>E11+7</f>
-        <v>45986</v>
+        <f>E11+3</f>
+        <v>45982</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -3255,8 +3259,8 @@
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
       <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
       <c r="W11" s="31"/>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -3322,28 +3326,30 @@
       <c r="CG11" s="31"/>
     </row>
     <row r="12" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="60" t="s">
-        <v>43</v>
+      <c r="A12" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="17">
         <v>0</v>
       </c>
       <c r="E12" s="71">
-        <f>Project_Start</f>
-        <v>45972</v>
+        <f>F11</f>
+        <v>45982</v>
       </c>
       <c r="F12" s="71">
-        <f>E12+7</f>
-        <v>45979</v>
+        <f>E12+4</f>
+        <v>45986</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3357,8 +3363,8 @@
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
       <c r="W12" s="31"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
@@ -3426,22 +3432,27 @@
     <row r="13" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="17">
         <v>0</v>
       </c>
       <c r="E13" s="71">
-        <f>F12</f>
-        <v>45979</v>
+        <f>Project_Start</f>
+        <v>45972</v>
       </c>
       <c r="F13" s="71">
         <f>E13+7</f>
-        <v>45986</v>
+        <v>45979</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -3458,7 +3469,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
+      <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
@@ -3523,25 +3534,22 @@
     <row r="14" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="17">
         <v>0</v>
       </c>
       <c r="E14" s="71">
-        <f>F12</f>
+        <f>F13</f>
         <v>45979</v>
       </c>
       <c r="F14" s="71">
-        <f>E14+4</f>
-        <v>45983</v>
+        <f>E14+7</f>
+        <v>45986</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -3621,26 +3629,29 @@
       <c r="CG14" s="31"/>
     </row>
     <row r="15" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="52"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="17">
         <v>0</v>
       </c>
       <c r="E15" s="71">
-        <f>Project_Start</f>
-        <v>45972</v>
+        <f>F13</f>
+        <v>45979</v>
       </c>
       <c r="F15" s="71">
-        <f>E15+5</f>
-        <v>45977</v>
+        <f>E15+4</f>
+        <v>45983</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -3724,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="19"/>
@@ -3819,7 +3830,7 @@
     <row r="17" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="20">
@@ -3915,10 +3926,12 @@
     </row>
     <row r="18" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
-      <c r="B18" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="54"/>
+      <c r="B18" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="D18" s="20">
         <v>0</v>
       </c>
@@ -4013,7 +4026,7 @@
     <row r="19" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="20">
@@ -4024,8 +4037,8 @@
         <v>45990</v>
       </c>
       <c r="F19" s="74">
-        <f>E19+4</f>
-        <v>45994</v>
+        <f>E19+6</f>
+        <v>45996</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -4110,10 +4123,10 @@
     <row r="20" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="20">
         <v>0</v>
@@ -4209,10 +4222,10 @@
     <row r="21" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -4308,7 +4321,7 @@
     <row r="22" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="20">
@@ -4408,10 +4421,10 @@
     <row r="23" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>80</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -4510,10 +4523,10 @@
     <row r="24" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="20">
         <v>0</v>
@@ -4614,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="22"/>
@@ -4709,7 +4722,7 @@
     <row r="26" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="23">
@@ -4809,7 +4822,7 @@
     <row r="27" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="23">
@@ -4909,7 +4922,7 @@
     <row r="28" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="23">
@@ -5009,7 +5022,7 @@
     <row r="29" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="23">
@@ -5109,7 +5122,7 @@
     <row r="30" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="23">
@@ -5199,10 +5212,10 @@
     </row>
     <row r="31" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="23">
@@ -5293,7 +5306,7 @@
     <row r="32" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="23">
@@ -5395,7 +5408,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="25"/>
@@ -5487,7 +5500,7 @@
     <row r="34" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="58"/>
       <c r="D34" s="26">
@@ -5587,7 +5600,7 @@
     <row r="35" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="26">
@@ -5687,7 +5700,7 @@
     <row r="36" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="58"/>
       <c r="D36" s="26">
@@ -5787,7 +5800,7 @@
     <row r="37" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="26">
@@ -5887,7 +5900,7 @@
     <row r="38" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="58"/>
       <c r="D38" s="26">
@@ -5987,7 +6000,7 @@
     <row r="39" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="26">

--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1AA130-62B8-42CF-9616-76263E30C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210473BB-8887-435B-94B4-377A900A3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210473BB-8887-435B-94B4-377A900A3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32488402-9845-4CCA-8AC9-1F525B9FCF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,6 +1391,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1408,15 +1417,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2029,7 +2029,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2079,137 +2079,137 @@
       <c r="B3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93">
+      <c r="D3" s="95"/>
+      <c r="E3" s="96">
         <f>DATE(2025,11,11)</f>
         <v>45972</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>45964</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>45971</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>45978</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>45985</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>45992</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>45999</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>46006</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>46013</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-      <c r="BM4" s="88">
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
+      <c r="BM4" s="91">
         <f>BM5</f>
         <v>46020</v>
       </c>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="90"/>
-      <c r="BT4" s="88">
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
+      <c r="BQ4" s="92"/>
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="91">
         <f>BT5</f>
         <v>46027</v>
       </c>
-      <c r="BU4" s="89"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="90"/>
-      <c r="CA4" s="88">
+      <c r="BU4" s="92"/>
+      <c r="BV4" s="92"/>
+      <c r="BW4" s="92"/>
+      <c r="BX4" s="92"/>
+      <c r="BY4" s="92"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="91">
         <f>CA5</f>
         <v>46034</v>
       </c>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="89"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="90"/>
+      <c r="CB4" s="92"/>
+      <c r="CC4" s="92"/>
+      <c r="CD4" s="92"/>
+      <c r="CE4" s="92"/>
+      <c r="CF4" s="92"/>
+      <c r="CG4" s="93"/>
     </row>
     <row r="5" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -3034,7 +3034,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="71">
         <f>Project_Start</f>
@@ -3136,7 +3136,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="71">
         <f>F9</f>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="11" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="88" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="52" t="s">
@@ -3329,7 +3329,7 @@
       <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="52" t="s">
@@ -3630,7 +3630,7 @@
     </row>
     <row r="15" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="89" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="52" t="s">
@@ -3926,7 +3926,7 @@
     </row>
     <row r="18" spans="1:85" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="90" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -4729,17 +4729,17 @@
         <v>0</v>
       </c>
       <c r="E26" s="77">
-        <f>F24+1</f>
-        <v>45995</v>
+        <f>E25</f>
+        <v>45996</v>
       </c>
       <c r="F26" s="77">
-        <f>E26</f>
-        <v>45995</v>
+        <f>E26+7</f>
+        <v>46003</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4829,17 +4829,17 @@
         <v>0</v>
       </c>
       <c r="E27" s="77">
-        <f>F26</f>
-        <v>45995</v>
+        <f>E25</f>
+        <v>45996</v>
       </c>
       <c r="F27" s="77">
-        <f>E27</f>
-        <v>45995</v>
+        <f>E27+14</f>
+        <v>46010</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4929,17 +4929,17 @@
         <v>0</v>
       </c>
       <c r="E28" s="77">
-        <f>F27</f>
-        <v>45995</v>
+        <f>E25</f>
+        <v>45996</v>
       </c>
       <c r="F28" s="77">
-        <f>E28</f>
-        <v>45995</v>
+        <f>E28+14</f>
+        <v>46010</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -5029,17 +5029,17 @@
         <v>0</v>
       </c>
       <c r="E29" s="77">
-        <f>F28</f>
-        <v>45995</v>
+        <f>F26</f>
+        <v>46003</v>
       </c>
       <c r="F29" s="77">
-        <f>E29</f>
-        <v>45995</v>
+        <f>E29+14</f>
+        <v>46017</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -5128,8 +5128,14 @@
       <c r="D30" s="23">
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
+      <c r="E30" s="77">
+        <f>F27</f>
+        <v>46010</v>
+      </c>
+      <c r="F30" s="77">
+        <f>E30+5</f>
+        <v>46015</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="31"/>
@@ -5221,8 +5227,14 @@
       <c r="D31" s="23">
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
+      <c r="E31" s="77">
+        <f>F30</f>
+        <v>46015</v>
+      </c>
+      <c r="F31" s="77">
+        <f>E31+3</f>
+        <v>46018</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="31"/>
@@ -5313,17 +5325,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="77">
-        <f>E28</f>
-        <v>45995</v>
+        <f>F27</f>
+        <v>46010</v>
       </c>
       <c r="F32" s="77">
-        <f>E32</f>
-        <v>45995</v>
+        <f>E32+4</f>
+        <v>46014</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -5412,7 +5424,10 @@
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="78"/>
+      <c r="E33" s="78">
+        <f>MAX(F26:F32)</f>
+        <v>46018</v>
+      </c>
       <c r="F33" s="79"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="str">
@@ -5507,17 +5522,17 @@
         <v>0</v>
       </c>
       <c r="E34" s="80">
-        <f>F32+1</f>
-        <v>45996</v>
+        <f>E33</f>
+        <v>46018</v>
       </c>
       <c r="F34" s="80">
-        <f t="shared" ref="F34:F39" si="25">E34</f>
-        <v>45996</v>
+        <f>E34+7</f>
+        <v>46025</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
@@ -5607,17 +5622,17 @@
         <v>0</v>
       </c>
       <c r="E35" s="80">
-        <f>F34</f>
-        <v>45996</v>
+        <f>E33</f>
+        <v>46018</v>
       </c>
       <c r="F35" s="80">
-        <f t="shared" si="25"/>
-        <v>45996</v>
+        <f>E35+5</f>
+        <v>46023</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
@@ -5707,17 +5722,17 @@
         <v>0</v>
       </c>
       <c r="E36" s="80">
-        <f>F35</f>
-        <v>45996</v>
+        <f>E34</f>
+        <v>46018</v>
       </c>
       <c r="F36" s="80">
-        <f t="shared" si="25"/>
-        <v>45996</v>
+        <f>F34</f>
+        <v>46025</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
@@ -5807,17 +5822,17 @@
         <v>0</v>
       </c>
       <c r="E37" s="80">
-        <f>F36</f>
-        <v>45996</v>
+        <f>E16</f>
+        <v>45986</v>
       </c>
       <c r="F37" s="80">
-        <f t="shared" si="25"/>
-        <v>45996</v>
+        <f>E37+28</f>
+        <v>46014</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
@@ -5907,17 +5922,17 @@
         <v>0</v>
       </c>
       <c r="E38" s="80">
-        <f>F37</f>
-        <v>45996</v>
+        <f>E36</f>
+        <v>46018</v>
       </c>
       <c r="F38" s="80">
-        <f t="shared" si="25"/>
-        <v>45996</v>
+        <f>F36-14</f>
+        <v>46011</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
@@ -6007,12 +6022,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="80">
-        <f>DATE(2026,1,6)</f>
-        <v>46028</v>
+        <f>DATE(2026,1,6)-14</f>
+        <v>46014</v>
       </c>
       <c r="F39" s="80">
-        <f t="shared" si="25"/>
-        <v>46028</v>
+        <f>DATE(2026,1,5)</f>
+        <v>46027</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -6418,7 +6433,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL7 BM5:CG6 I8:CG42">
+  <conditionalFormatting sqref="I5:BL7 I8:CG42 BM5:CG6">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -6583,6 +6598,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6870,26 +6905,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
@@ -6899,6 +6914,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6917,16 +6944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32488402-9845-4CCA-8AC9-1F525B9FCF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B31E92-CBD6-4DE1-9D85-1E59B48A33BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -2029,7 +2029,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2041,7 @@
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="85" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3147,7 +3147,10 @@
         <v>45984</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -3235,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="71">
         <f>F9</f>
@@ -3246,7 +3249,10 @@
         <v>45982</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -3438,7 +3444,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="71">
         <f>Project_Start</f>
@@ -3549,7 +3555,10 @@
         <v>45986</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -3845,7 +3854,10 @@
         <v>45990</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -3944,7 +3956,10 @@
         <v>45993</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -4028,9 +4043,11 @@
       <c r="B19" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="74">
         <f>F17</f>
@@ -4041,7 +4058,10 @@
         <v>45996</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -4140,7 +4160,10 @@
         <v>45996</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -4239,7 +4262,10 @@
         <v>45996</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -5137,7 +5163,10 @@
         <v>46015</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="14">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
@@ -5236,7 +5265,10 @@
         <v>46018</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
@@ -5926,13 +5958,13 @@
         <v>46018</v>
       </c>
       <c r="F38" s="80">
-        <f>F36-14</f>
-        <v>46011</v>
+        <f>F36</f>
+        <v>46025</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14">
         <f t="shared" si="24"/>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
@@ -6022,15 +6054,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="80">
-        <f>DATE(2026,1,6)-14</f>
-        <v>46014</v>
+        <f>E25</f>
+        <v>45996</v>
       </c>
       <c r="F39" s="80">
         <f>DATE(2026,1,5)</f>
         <v>46027</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="14">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
@@ -6127,7 +6162,10 @@
         <v>46028</v>
       </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
@@ -6598,26 +6636,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6905,6 +6923,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
@@ -6914,18 +6952,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6944,4 +6970,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/planning/Gantt Chart.xlsx
+++ b/planning/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B31E92-CBD6-4DE1-9D85-1E59B48A33BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8C1BA-405E-41A7-99F9-DCCA83500508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2029,7 +2029,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ15" sqref="AQ15"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2041,7 @@
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="85" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6636,6 +6636,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6923,26 +6943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
@@ -6952,6 +6952,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6970,16 +6982,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>